--- a/Anforderungsanalyse.xlsx
+++ b/Anforderungsanalyse.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michi\SYS.22 Schulaufgaben\Softwareentwicklung\FS25\50_Projektarbeit\Anforderungsanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2D3110-F89D-425E-BA8C-241893E79B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DCF5FE-CABB-4E10-9BF8-8B1BF4C89B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="2" xr2:uid="{137C0665-1687-4E7E-B4BD-4347EF5718D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="3" xr2:uid="{137C0665-1687-4E7E-B4BD-4347EF5718D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Anforderungen" sheetId="1" r:id="rId1"/>
     <sheet name="Kurzbeschrieb" sheetId="7" r:id="rId2"/>
     <sheet name="Flussdiagramm" sheetId="4" r:id="rId3"/>
-    <sheet name="Testing" sheetId="6" r:id="rId4"/>
-    <sheet name="Dropdown möglichkeit" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Klassendiagramm" sheetId="8" r:id="rId4"/>
+    <sheet name="Testing" sheetId="6" r:id="rId5"/>
+    <sheet name="Dropdown möglichkeit" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Anforderungen!$A$1:$I$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Flussdiagramm!$A$1:$O$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Klassendiagramm!$A$1:$K$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Kurzbeschrieb!$A$1:$A$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Testing!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Testing!$A$1:$C$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -330,6 +332,9 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,9 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4038,6 +4040,72 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11339</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>725612</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>170088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Grafik 54" descr="Generiertes Bild">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54C3D76-9F59-D110-3929-9F5F8730FAD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11339" y="226784"/>
+          <a:ext cx="8311594" cy="5624286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4382,17 +4450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,37 +5103,37 @@
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5110,7 +5178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6798C824-714B-4477-9FB0-0A43E166BCD6}">
   <dimension ref="A2:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
@@ -5118,23 +5186,23 @@
   <sheetData>
     <row r="2" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5148,6 +5216,43 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25937479-3474-48E9-836A-E24683FF120C}">
+  <dimension ref="A2:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:N2"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FF7953-7971-474B-80BF-CFF566E6B0A6}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -5165,11 +5270,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5292,7 +5397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6DF81-CFC5-41D0-A3A0-8BC7A7D6C594}">
   <dimension ref="C8:C13"/>
   <sheetViews>
